--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152835.4788169615</v>
+        <v>154057.1400920195</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19282386.12654755</v>
+        <v>19282386.12654756</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9802884.450357858</v>
+        <v>9802884.450357869</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5441437.325657621</v>
+        <v>5429464.11155757</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>154.1212411430556</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>28.65193780215786</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +755,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>9.039874437751914</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -874,16 +876,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>111.7901961536106</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.0281770515513</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>131.9755589877488</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1069,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>74.07925546865125</v>
       </c>
       <c r="Y7" t="n">
-        <v>168.2711384223707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>271.1744826967958</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>66.41808225580672</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1294,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>54.12014366736861</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.941715507137</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>143.4324547506684</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>5.560931021113761</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1540,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>57.03093853158182</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>164.540418312084</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1616,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>126.7524996438699</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>125.656657488477</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.79484432979901</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>57.03093853158182</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1853,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>140.9371930256454</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.995605349316488</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2002,19 +2004,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>164.540418312084</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>138.8951294267249</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>232.3024717866957</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2090,13 +2092,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>58.67748875058538</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>97.36779036966699</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>167.2258230149176</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -2330,13 +2332,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>58.67748875058538</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2479,7 +2481,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>94.58894489649869</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>84.4067421885335</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>278.8916817513665</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.97279502168175</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2767,19 +2769,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>154.1156291734913</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>219.5144138719527</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>45.47741154879554</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2953,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>218.9989885011889</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3029,13 +3031,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>187.7303633741241</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>92.38090300811169</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3086,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3205,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>260.4446813871647</v>
+        <v>115.105571630339</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>386.18517611077</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>58.67748875058538</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>80.86522355397825</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>95.86591325725473</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>71.94762989914921</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3676,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>123.9086344760402</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>138.0567122119943</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3749,7 +3751,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>43.31412147657505</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>117.7395304238322</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>242.5084476311951</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>294.4507542523679</v>
+        <v>20.8290201005995</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4141,19 +4143,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>33.30824845179918</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>219.4183652254769</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192.5900138174486</v>
+        <v>916.0466945778373</v>
       </c>
       <c r="C2" t="n">
-        <v>192.5900138174486</v>
+        <v>489.1459645911374</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91199246082674</v>
+        <v>65.85334377613771</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082674</v>
+        <v>65.85334377613771</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082674</v>
+        <v>65.85334377613771</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
         <v>399.5154512777223</v>
@@ -4334,13 +4336,13 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L2" t="n">
+        <v>856.3013579804531</v>
+      </c>
+      <c r="M2" t="n">
         <v>1313.087264683184</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>1769.873171385915</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1845.599623041337</v>
       </c>
       <c r="O2" t="n">
         <v>1845.599623041337</v>
@@ -4355,25 +4357,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U2" t="n">
-        <v>1366.319142682382</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V2" t="n">
-        <v>1008.829727808632</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W2" t="n">
-        <v>612.4383781089787</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X2" t="n">
-        <v>612.4383781089787</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="Y2" t="n">
-        <v>612.4383781089787</v>
+        <v>1335.895058869367</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J3" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K3" t="n">
-        <v>316.0561247023297</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L3" t="n">
-        <v>772.8420314050605</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M3" t="n">
-        <v>1229.627938107791</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N3" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O3" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4437,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4446,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>710.2713085277261</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C4" t="n">
-        <v>538.2987454066421</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D4" t="n">
-        <v>374.9819725334128</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E4" t="n">
-        <v>208.7737666862663</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
         <v>430.8949765933859</v>
@@ -4510,28 +4512,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1836.468436740577</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1666.333389259712</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1422.994041485612</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.902165973849</v>
+        <v>1142.809592985916</v>
       </c>
       <c r="V4" t="n">
-        <v>823.1906985818782</v>
+        <v>1142.809592985916</v>
       </c>
       <c r="W4" t="n">
-        <v>710.2713085277261</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X4" t="n">
-        <v>710.2713085277261</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y4" t="n">
-        <v>710.2713085277261</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.91199246082674</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C5" t="n">
-        <v>36.91199246082674</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L5" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M5" t="n">
-        <v>1407.269712569019</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N5" t="n">
-        <v>1728.043288159434</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O5" t="n">
-        <v>1728.043288159434</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="Q5" t="n">
         <v>1728.043288159434</v>
@@ -4598,19 +4600,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U5" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V5" t="n">
-        <v>1229.755298763999</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W5" t="n">
-        <v>1229.755298763999</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>818.0352999317458</v>
+        <v>1712.290977599166</v>
       </c>
       <c r="Y5" t="n">
-        <v>412.6980298866362</v>
+        <v>1306.953707554057</v>
       </c>
     </row>
     <row r="6">
@@ -4626,46 +4628,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273858</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>44.35863542273858</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L6" t="n">
-        <v>44.35863542273858</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="M6" t="n">
-        <v>44.35863542273858</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N6" t="n">
-        <v>475.2419029331439</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O6" t="n">
-        <v>932.0278096358747</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P6" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>876.528278233494</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C7" t="n">
-        <v>704.55571511241</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D7" t="n">
-        <v>541.2389422391807</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E7" t="n">
-        <v>375.0307363920342</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F7" t="n">
-        <v>203.1689621665946</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K7" t="n">
         <v>76.20565529896515</v>
@@ -4750,25 +4752,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T7" t="n">
-        <v>1798.56100972851</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U7" t="n">
-        <v>1518.376561228814</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V7" t="n">
-        <v>1236.665093836843</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="W7" t="n">
-        <v>1236.665093836843</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="X7" t="n">
-        <v>1236.665093836843</v>
+        <v>1310.259083697129</v>
       </c>
       <c r="Y7" t="n">
-        <v>1066.69424694556</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>369.6772422433207</v>
+        <v>608.6939898724443</v>
       </c>
       <c r="C8" t="n">
-        <v>369.6772422433207</v>
+        <v>608.6939898724443</v>
       </c>
       <c r="D8" t="n">
-        <v>369.6772422433207</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E8" t="n">
-        <v>369.6772422433207</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F8" t="n">
-        <v>369.6772422433207</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G8" t="n">
-        <v>369.6772422433207</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L8" t="n">
-        <v>814.4714747539724</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M8" t="n">
-        <v>1271.257381456703</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N8" t="n">
-        <v>1728.043288159434</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="Q8" t="n">
         <v>1728.043288159434</v>
@@ -4829,25 +4831,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T8" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U8" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V8" t="n">
-        <v>1194.86287657996</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W8" t="n">
-        <v>1194.86287657996</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X8" t="n">
-        <v>1194.86287657996</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y8" t="n">
-        <v>789.5256065348508</v>
+        <v>1028.542354163974</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K9" t="n">
-        <v>393.2225928484409</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L9" t="n">
-        <v>393.2225928484409</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M9" t="n">
-        <v>850.0084995511718</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N9" t="n">
-        <v>1306.794406253903</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O9" t="n">
-        <v>1763.580312956634</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956634</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4911,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4920,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1020.32454672534</v>
+        <v>911.6745856373311</v>
       </c>
       <c r="C10" t="n">
-        <v>848.3519836042556</v>
+        <v>739.7020225162471</v>
       </c>
       <c r="D10" t="n">
-        <v>685.0352107310263</v>
+        <v>739.7020225162471</v>
       </c>
       <c r="E10" t="n">
-        <v>518.8270048838798</v>
+        <v>573.4938166691006</v>
       </c>
       <c r="F10" t="n">
-        <v>346.9652306584402</v>
+        <v>401.632042443661</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>235.3750727378932</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>91.57880424604755</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
         <v>76.20565529896515</v>
@@ -4987,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U10" t="n">
-        <v>1395.280127060776</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V10" t="n">
-        <v>1395.280127060776</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W10" t="n">
-        <v>1395.280127060776</v>
+        <v>1570.74721921385</v>
       </c>
       <c r="X10" t="n">
-        <v>1395.280127060776</v>
+        <v>1328.183322659655</v>
       </c>
       <c r="Y10" t="n">
-        <v>1210.490515437405</v>
+        <v>1101.840554349397</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>608.6939898724443</v>
+        <v>498.7095937040554</v>
       </c>
       <c r="C11" t="n">
-        <v>181.7932598857444</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="D11" t="n">
-        <v>181.7932598857444</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="E11" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L11" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M11" t="n">
-        <v>815.1719019525203</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N11" t="n">
-        <v>1271.957808655251</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="O11" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P11" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q11" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>1735.615226872948</v>
       </c>
       <c r="X11" t="n">
-        <v>1433.879624209084</v>
+        <v>1323.895228040695</v>
       </c>
       <c r="Y11" t="n">
-        <v>1028.542354163974</v>
+        <v>918.5579579955854</v>
       </c>
     </row>
     <row r="12">
@@ -5100,43 +5102,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J12" t="n">
-        <v>316.0561247023297</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K12" t="n">
-        <v>316.0561247023297</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="L12" t="n">
-        <v>772.8420314050605</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="M12" t="n">
-        <v>1229.627938107791</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="N12" t="n">
-        <v>1686.413844810522</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="O12" t="n">
-        <v>1763.580312956633</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="P12" t="n">
-        <v>1763.580312956633</v>
+        <v>1414.716355530931</v>
       </c>
       <c r="Q12" t="n">
         <v>1763.580312956633</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1020.32454672534</v>
+        <v>911.6745856373311</v>
       </c>
       <c r="C13" t="n">
-        <v>848.3519836042556</v>
+        <v>739.7020225162471</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0352107310263</v>
+        <v>576.3852496430178</v>
       </c>
       <c r="E13" t="n">
-        <v>518.8270048838798</v>
+        <v>410.1770437958713</v>
       </c>
       <c r="F13" t="n">
-        <v>346.9652306584402</v>
+        <v>238.3152695704318</v>
       </c>
       <c r="G13" t="n">
-        <v>180.7082609526723</v>
+        <v>238.3152695704318</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082674</v>
+        <v>94.51900107858614</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K13" t="n">
         <v>76.20565529896515</v>
@@ -5236,13 +5238,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W13" t="n">
-        <v>1679.397180301858</v>
+        <v>1570.74721921385</v>
       </c>
       <c r="X13" t="n">
-        <v>1436.833283747663</v>
+        <v>1328.183322659655</v>
       </c>
       <c r="Y13" t="n">
-        <v>1210.490515437405</v>
+        <v>1101.840554349397</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1440.262352996227</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C14" t="n">
-        <v>1013.361623009527</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D14" t="n">
-        <v>590.0690021945275</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E14" t="n">
-        <v>590.0690021945275</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F14" t="n">
-        <v>164.9448203839277</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K14" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L14" t="n">
-        <v>475.942330131692</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M14" t="n">
-        <v>932.7282368344229</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N14" t="n">
-        <v>1389.514143537154</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O14" t="n">
-        <v>1389.514143537154</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P14" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q14" t="n">
         <v>1845.599623041337</v>
@@ -5315,13 +5317,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.673706386309</v>
       </c>
       <c r="X14" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.953707554057</v>
       </c>
       <c r="Y14" t="n">
-        <v>1440.262352996227</v>
+        <v>1306.953707554057</v>
       </c>
     </row>
     <row r="15">
@@ -5337,46 +5339,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J15" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K15" t="n">
-        <v>475.2419029331439</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L15" t="n">
-        <v>475.2419029331439</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M15" t="n">
-        <v>932.0278096358747</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N15" t="n">
-        <v>1388.813716338606</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O15" t="n">
-        <v>1845.599623041337</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="P15" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R15" t="n">
         <v>1845.599623041337</v>
@@ -5410,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>911.6745856373313</v>
+        <v>911.6745856373311</v>
       </c>
       <c r="C16" t="n">
-        <v>739.7020225162473</v>
+        <v>739.7020225162471</v>
       </c>
       <c r="D16" t="n">
-        <v>576.385249643018</v>
+        <v>576.3852496430178</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1770437958716</v>
+        <v>410.1770437958713</v>
       </c>
       <c r="F16" t="n">
-        <v>238.315269570432</v>
+        <v>238.3152695704318</v>
       </c>
       <c r="G16" t="n">
-        <v>72.05829986466412</v>
+        <v>238.3152695704318</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082674</v>
+        <v>94.51900107858614</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K16" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L16" t="n">
-        <v>430.8949765933859</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M16" t="n">
-        <v>822.0807715636367</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N16" t="n">
-        <v>1199.572282439673</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O16" t="n">
-        <v>1555.000411119436</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P16" t="n">
-        <v>1845.599623041337</v>
+        <v>1806.305960203198</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1738.206464925269</v>
+        <v>1028.542354163974</v>
       </c>
       <c r="C17" t="n">
-        <v>1311.305734938569</v>
+        <v>1028.542354163974</v>
       </c>
       <c r="D17" t="n">
-        <v>888.013114123569</v>
+        <v>605.2497333489746</v>
       </c>
       <c r="E17" t="n">
-        <v>462.0361742714265</v>
+        <v>179.2727934968322</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K17" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L17" t="n">
-        <v>475.2419029331441</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M17" t="n">
-        <v>932.027809635875</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N17" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O17" t="n">
         <v>1845.599623041337</v>
@@ -5540,25 +5542,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T17" t="n">
-        <v>1738.206464925269</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U17" t="n">
-        <v>1738.206464925269</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V17" t="n">
-        <v>1738.206464925269</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W17" t="n">
-        <v>1738.206464925269</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X17" t="n">
-        <v>1738.206464925269</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y17" t="n">
-        <v>1738.206464925269</v>
+        <v>1028.542354163974</v>
       </c>
     </row>
     <row r="18">
@@ -5574,40 +5576,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E18" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F18" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L18" t="n">
+        <v>36.91199246082673</v>
+      </c>
+      <c r="M18" t="n">
         <v>493.6978991635576</v>
       </c>
-      <c r="M18" t="n">
-        <v>932.0278096358747</v>
-      </c>
       <c r="N18" t="n">
-        <v>932.0278096358747</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O18" t="n">
-        <v>932.0278096358747</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="P18" t="n">
         <v>1388.813716338606</v>
@@ -5647,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1020.32454672534</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="C19" t="n">
-        <v>848.3519836042556</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="D19" t="n">
-        <v>685.0352107310263</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="E19" t="n">
-        <v>518.8270048838798</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="F19" t="n">
-        <v>346.9652306584402</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="G19" t="n">
         <v>180.7082609526723</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K19" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L19" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.806038155494</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N19" t="n">
-        <v>1428.000280878674</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O19" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P19" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q19" t="n">
         <v>1845.599623041337</v>
@@ -5698,25 +5700,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T19" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U19" t="n">
-        <v>1679.397180301858</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V19" t="n">
-        <v>1679.397180301858</v>
+        <v>1011.64266875463</v>
       </c>
       <c r="W19" t="n">
-        <v>1679.397180301858</v>
+        <v>1011.64266875463</v>
       </c>
       <c r="X19" t="n">
-        <v>1436.833283747663</v>
+        <v>769.0787722004354</v>
       </c>
       <c r="Y19" t="n">
-        <v>1210.490515437405</v>
+        <v>542.7360038901775</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1745.792697513689</v>
+        <v>1610.950661640634</v>
       </c>
       <c r="C20" t="n">
-        <v>1318.891967526989</v>
+        <v>1184.049931653934</v>
       </c>
       <c r="D20" t="n">
-        <v>895.5993467119897</v>
+        <v>760.7573108389344</v>
       </c>
       <c r="E20" t="n">
-        <v>469.6224068598473</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924753</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924753</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K20" t="n">
-        <v>549.9383681074144</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L20" t="n">
-        <v>549.9383681074144</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M20" t="n">
-        <v>1100.603903091853</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N20" t="n">
-        <v>1100.603903091853</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O20" t="n">
-        <v>1651.269438076291</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P20" t="n">
-        <v>1651.269438076291</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V20" t="n">
-        <v>2165.64106180522</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W20" t="n">
-        <v>2165.64106180522</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X20" t="n">
-        <v>2165.64106180522</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y20" t="n">
-        <v>2165.64106180522</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924753</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L21" t="n">
-        <v>44.49822504924753</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M21" t="n">
-        <v>595.1637600336857</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N21" t="n">
-        <v>1145.829295018124</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O21" t="n">
-        <v>1696.494830002562</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S21" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V21" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>1046.471855267684</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734055</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792427</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736634</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M22" t="n">
-        <v>1074.392270743914</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N22" t="n">
-        <v>1451.88378161995</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O22" t="n">
-        <v>1807.311910299713</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P22" t="n">
-        <v>2097.911122221614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V22" t="n">
-        <v>2061.60438497749</v>
+        <v>1563.888155649365</v>
       </c>
       <c r="W22" t="n">
-        <v>1786.751981150003</v>
+        <v>1289.035751821878</v>
       </c>
       <c r="X22" t="n">
-        <v>1544.188084595808</v>
+        <v>1046.471855267684</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>1046.471855267684</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1745.792697513689</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="C23" t="n">
-        <v>1318.891967526989</v>
+        <v>2055.996279720035</v>
       </c>
       <c r="D23" t="n">
-        <v>895.5993467119897</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E23" t="n">
-        <v>469.6224068598473</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F23" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>44.49822504924753</v>
+        <v>572.9146475090616</v>
       </c>
       <c r="L23" t="n">
-        <v>455.3583126271592</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M23" t="n">
-        <v>1006.023847611597</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N23" t="n">
-        <v>1556.689382596036</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O23" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P23" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W23" t="n">
-        <v>2165.64106180522</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X23" t="n">
-        <v>2165.64106180522</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y23" t="n">
-        <v>2165.64106180522</v>
+        <v>2224.911252462376</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6056,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K24" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L24" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M24" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="N24" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="O24" t="n">
-        <v>1696.494830002562</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P24" t="n">
         <v>1853.185855629757</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>268.5772905989112</v>
+        <v>623.3523977951304</v>
       </c>
       <c r="C25" t="n">
-        <v>96.60472747782725</v>
+        <v>451.3798346740464</v>
       </c>
       <c r="D25" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="E25" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="F25" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="G25" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H25" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6154,7 +6156,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N25" t="n">
         <v>1451.88378161995</v>
@@ -6172,25 +6174,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S25" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U25" t="n">
-        <v>1484.213795394888</v>
+        <v>1838.988902591107</v>
       </c>
       <c r="V25" t="n">
-        <v>1202.502328002917</v>
+        <v>1557.277435199136</v>
       </c>
       <c r="W25" t="n">
-        <v>927.6499241754298</v>
+        <v>1282.425031371649</v>
       </c>
       <c r="X25" t="n">
-        <v>685.0860276212348</v>
+        <v>1039.861134817454</v>
       </c>
       <c r="Y25" t="n">
-        <v>458.7432593109769</v>
+        <v>813.5183665071961</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>129.7575605932208</v>
+        <v>471.3989550359474</v>
       </c>
       <c r="C26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L26" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M26" t="n">
-        <v>1100.603903091853</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N26" t="n">
-        <v>1651.269438076291</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O26" t="n">
-        <v>1651.269438076291</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P26" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T26" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U26" t="n">
-        <v>2120.543958335517</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V26" t="n">
-        <v>1763.054543461766</v>
+        <v>1684.847573612963</v>
       </c>
       <c r="W26" t="n">
-        <v>1366.663193762113</v>
+        <v>1288.45622391331</v>
       </c>
       <c r="X26" t="n">
-        <v>954.9431949298605</v>
+        <v>876.7362250810571</v>
       </c>
       <c r="Y26" t="n">
-        <v>549.6059248847508</v>
+        <v>471.3989550359474</v>
       </c>
     </row>
     <row r="27">
@@ -6285,46 +6287,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F27" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J27" t="n">
         <v>316.1957143288386</v>
       </c>
       <c r="K27" t="n">
-        <v>866.8612493132769</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L27" t="n">
-        <v>866.8612493132769</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="M27" t="n">
-        <v>866.8612493132769</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N27" t="n">
-        <v>866.8612493132769</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O27" t="n">
-        <v>866.8612493132769</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P27" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q27" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6379,7 +6381,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6403,31 +6405,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q28" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T28" t="n">
-        <v>1981.571904688276</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U28" t="n">
-        <v>1701.387456188581</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="V28" t="n">
-        <v>1419.67598879661</v>
+        <v>1699.860437296304</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.823584969123</v>
+        <v>1699.860437296304</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.823584969123</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.823584969123</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1003.334268426084</v>
+        <v>1399.725618125736</v>
       </c>
       <c r="C29" t="n">
-        <v>1003.334268426084</v>
+        <v>1399.725618125736</v>
       </c>
       <c r="D29" t="n">
-        <v>1003.334268426084</v>
+        <v>976.4329973107363</v>
       </c>
       <c r="E29" t="n">
-        <v>781.6025372422929</v>
+        <v>550.4560574585938</v>
       </c>
       <c r="F29" t="n">
-        <v>781.6025372422929</v>
+        <v>125.331875647994</v>
       </c>
       <c r="G29" t="n">
-        <v>377.2634748317415</v>
+        <v>125.331875647994</v>
       </c>
       <c r="H29" t="n">
-        <v>79.39509630577632</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K29" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L29" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M29" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N29" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O29" t="n">
-        <v>1768.825772958194</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P29" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W29" t="n">
-        <v>1828.519902762723</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X29" t="n">
-        <v>1828.519902762723</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y29" t="n">
-        <v>1423.182632717614</v>
+        <v>1819.573982417266</v>
       </c>
     </row>
     <row r="30">
@@ -6522,40 +6524,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J30" t="n">
         <v>316.1957143288386</v>
       </c>
       <c r="K30" t="n">
-        <v>866.8612493132769</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L30" t="n">
-        <v>866.8612493132769</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M30" t="n">
-        <v>866.8612493132769</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N30" t="n">
-        <v>866.8612493132769</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O30" t="n">
-        <v>866.8612493132769</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P30" t="n">
         <v>1389.040378766978</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>884.1145108219148</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C31" t="n">
-        <v>712.1419477008308</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D31" t="n">
-        <v>548.8251748276015</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E31" t="n">
-        <v>382.616968980455</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F31" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6652,19 +6654,19 @@
         <v>1764.398243894584</v>
       </c>
       <c r="U31" t="n">
-        <v>1764.398243894584</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V31" t="n">
-        <v>1764.398243894584</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W31" t="n">
-        <v>1543.187144398433</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X31" t="n">
-        <v>1300.623247844238</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y31" t="n">
-        <v>1074.28047953398</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>988.0056192934842</v>
+        <v>234.12485472008</v>
       </c>
       <c r="C32" t="n">
-        <v>561.1048893067843</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D32" t="n">
-        <v>137.8122684917846</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L32" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M32" t="n">
-        <v>1674.245717477938</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N32" t="n">
-        <v>1674.245717477938</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O32" t="n">
-        <v>1674.245717477938</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q32" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462377</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462377</v>
+        <v>1471.030487888972</v>
       </c>
       <c r="X32" t="n">
-        <v>1813.191253630124</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y32" t="n">
-        <v>1407.853983585014</v>
+        <v>653.97321901161</v>
       </c>
     </row>
     <row r="33">
@@ -6765,28 +6767,28 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K33" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L33" t="n">
-        <v>1145.829295018124</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="M33" t="n">
-        <v>1389.040378766978</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="N33" t="n">
         <v>1389.040378766978</v>
@@ -6832,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C34" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D34" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E34" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F34" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G34" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
       </c>
       <c r="K34" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L34" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M34" t="n">
         <v>1074.392270743914</v>
@@ -6877,31 +6879,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S34" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U34" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V34" t="n">
-        <v>1961.835816717766</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W34" t="n">
-        <v>1686.983412890279</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X34" t="n">
-        <v>1444.419516336084</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y34" t="n">
-        <v>1218.076748025826</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1745.792697513689</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C35" t="n">
-        <v>1318.891967526989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D35" t="n">
-        <v>895.5993467119897</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E35" t="n">
-        <v>469.6224068598473</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924753</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L35" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M35" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N35" t="n">
-        <v>1651.269438076291</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O35" t="n">
-        <v>1651.269438076291</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P35" t="n">
-        <v>1651.269438076291</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462377</v>
+        <v>1542.128972506399</v>
       </c>
       <c r="W35" t="n">
-        <v>2224.911252462377</v>
+        <v>1542.128972506399</v>
       </c>
       <c r="X35" t="n">
-        <v>2165.64106180522</v>
+        <v>1542.128972506399</v>
       </c>
       <c r="Y35" t="n">
-        <v>2165.64106180522</v>
+        <v>1136.791702461289</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924753</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L36" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M36" t="n">
-        <v>751.8547856608809</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N36" t="n">
-        <v>1302.520320645319</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="O36" t="n">
-        <v>1853.185855629757</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="P36" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q36" t="n">
         <v>1853.185855629757</v>
@@ -7090,55 +7092,55 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M37" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.213795394889</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V37" t="n">
-        <v>1402.531751400971</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W37" t="n">
-        <v>1127.679347573484</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X37" t="n">
-        <v>1127.679347573484</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y37" t="n">
-        <v>1127.679347573484</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1320.668515703089</v>
+        <v>878.4367930577017</v>
       </c>
       <c r="C38" t="n">
-        <v>893.7677857163897</v>
+        <v>878.4367930577017</v>
       </c>
       <c r="D38" t="n">
-        <v>470.47516490139</v>
+        <v>878.4367930577017</v>
       </c>
       <c r="E38" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L38" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M38" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N38" t="n">
-        <v>1651.269438076291</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="O38" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P38" t="n">
-        <v>1651.269438076291</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V38" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W38" t="n">
-        <v>2152.236878826872</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="X38" t="n">
-        <v>1740.51687999462</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="Y38" t="n">
-        <v>1740.51687999462</v>
+        <v>878.4367930577017</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7241,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J39" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K39" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L39" t="n">
-        <v>751.8547856608809</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M39" t="n">
+        <v>595.1637600336855</v>
+      </c>
+      <c r="N39" t="n">
+        <v>751.8547856608812</v>
+      </c>
+      <c r="O39" t="n">
         <v>1302.520320645319</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1853.185855629757</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1853.185855629757</v>
       </c>
       <c r="P39" t="n">
         <v>1853.185855629757</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1009.2747476664</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C40" t="n">
-        <v>837.3021845453159</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D40" t="n">
-        <v>673.9854116720866</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E40" t="n">
-        <v>507.7772058249401</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F40" t="n">
-        <v>335.9154315995005</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G40" t="n">
-        <v>169.6584618937326</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H40" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7351,31 +7353,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T40" t="n">
-        <v>2224.911252462377</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U40" t="n">
-        <v>2224.911252462377</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="V40" t="n">
-        <v>1943.199785070405</v>
+        <v>1699.860437296305</v>
       </c>
       <c r="W40" t="n">
-        <v>1668.347381242918</v>
+        <v>1699.860437296305</v>
       </c>
       <c r="X40" t="n">
-        <v>1425.783484688724</v>
+        <v>1457.29654074211</v>
       </c>
       <c r="Y40" t="n">
-        <v>1199.440716378466</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>893.7677857163897</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C41" t="n">
-        <v>893.7677857163897</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D41" t="n">
-        <v>470.47516490139</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E41" t="n">
-        <v>44.49822504924753</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L41" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M41" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N41" t="n">
-        <v>1696.494830002562</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="O41" t="n">
-        <v>2224.911252462377</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2181.15961460725</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T41" t="n">
-        <v>1960.234043651883</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U41" t="n">
-        <v>1701.879134248295</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="V41" t="n">
-        <v>1701.879134248295</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="W41" t="n">
-        <v>1305.487784548642</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="X41" t="n">
-        <v>893.7677857163897</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="Y41" t="n">
-        <v>893.7677857163897</v>
+        <v>1780.689568770218</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7478,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K42" t="n">
-        <v>201.1892506764427</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="L42" t="n">
-        <v>201.1892506764427</v>
+        <v>602.6104029955974</v>
       </c>
       <c r="M42" t="n">
-        <v>751.8547856608809</v>
+        <v>602.6104029955974</v>
       </c>
       <c r="N42" t="n">
-        <v>1302.520320645319</v>
+        <v>602.6104029955974</v>
       </c>
       <c r="O42" t="n">
-        <v>1853.185855629757</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="P42" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q42" t="n">
         <v>1853.185855629757</v>
@@ -7546,25 +7548,25 @@
         <v>1127.679347573484</v>
       </c>
       <c r="C43" t="n">
-        <v>955.7067844524004</v>
+        <v>955.7067844524003</v>
       </c>
       <c r="D43" t="n">
-        <v>792.3900115791711</v>
+        <v>792.390011579171</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320246</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065851</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008172</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7576,7 +7578,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M43" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N43" t="n">
         <v>1451.88378161995</v>
@@ -7588,31 +7590,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q43" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S43" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T43" t="n">
-        <v>2224.911252462377</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U43" t="n">
-        <v>2224.911252462377</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V43" t="n">
-        <v>2061.60438497749</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W43" t="n">
-        <v>1786.751981150003</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="X43" t="n">
-        <v>1544.188084595808</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="Y43" t="n">
-        <v>1317.84531628555</v>
+        <v>1127.679347573484</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1624.67405208597</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="C44" t="n">
-        <v>1327.249047790649</v>
+        <v>1191.636164242355</v>
       </c>
       <c r="D44" t="n">
-        <v>1327.249047790649</v>
+        <v>768.3435434273551</v>
       </c>
       <c r="E44" t="n">
-        <v>901.2721079385067</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F44" t="n">
-        <v>476.1479261279069</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G44" t="n">
-        <v>71.80886371735554</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H44" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>493.6978991635576</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L44" t="n">
-        <v>950.4838058662885</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M44" t="n">
-        <v>950.4838058662885</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N44" t="n">
-        <v>1271.257381456703</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="O44" t="n">
-        <v>1271.257381456703</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P44" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q44" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T44" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U44" t="n">
-        <v>1624.67405208597</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V44" t="n">
-        <v>1624.67405208597</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W44" t="n">
-        <v>1624.67405208597</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X44" t="n">
-        <v>1624.67405208597</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="Y44" t="n">
-        <v>1624.67405208597</v>
+        <v>1212.675578485385</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>36.9119924608267</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J45" t="n">
-        <v>308.6094817404178</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>308.6094817404178</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>308.6094817404178</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M45" t="n">
-        <v>308.6094817404178</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N45" t="n">
-        <v>765.3953884431487</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O45" t="n">
-        <v>850.0084995511718</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P45" t="n">
-        <v>1306.794406253903</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q45" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1020.32454672534</v>
+        <v>729.0902991667037</v>
       </c>
       <c r="C46" t="n">
-        <v>848.3519836042556</v>
+        <v>557.1177360456197</v>
       </c>
       <c r="D46" t="n">
-        <v>685.0352107310263</v>
+        <v>393.8009631723904</v>
       </c>
       <c r="E46" t="n">
-        <v>518.8270048838798</v>
+        <v>393.8009631723904</v>
       </c>
       <c r="F46" t="n">
-        <v>346.9652306584402</v>
+        <v>221.9391889469508</v>
       </c>
       <c r="G46" t="n">
-        <v>180.7082609526723</v>
+        <v>221.9391889469508</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082674</v>
+        <v>78.14292045510524</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J46" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.806220807371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1742.234349487134</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>1675.464575560472</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T46" t="n">
-        <v>1432.125227786372</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U46" t="n">
-        <v>1432.125227786372</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V46" t="n">
-        <v>1210.490515437405</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.490515437405</v>
+        <v>1388.162932743222</v>
       </c>
       <c r="X46" t="n">
-        <v>1210.490515437405</v>
+        <v>1145.599036189027</v>
       </c>
       <c r="Y46" t="n">
-        <v>1210.490515437405</v>
+        <v>919.2562678787694</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7984,16 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N2" t="n">
-        <v>113.770988142953</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>113.8823246645311</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8058,19 +8060,19 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N3" t="n">
-        <v>99.28895563385618</v>
+        <v>182.1367435982031</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8079,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>132.9935626255638</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8213,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N5" t="n">
-        <v>361.2933355520367</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
@@ -8234,7 +8236,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>455.2721730654567</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8292,31 +8294,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>100.4610141345442</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N6" t="n">
-        <v>456.5786519614258</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,7 +8376,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8453,25 +8455,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L8" t="n">
-        <v>457.4595408934817</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>455.2721730654567</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8529,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>107.8670228313365</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>465.8542658379013</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8611,7 +8613,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8690,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L11" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>457.2862635810461</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N11" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>113.8823246645311</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8768,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L12" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O12" t="n">
-        <v>101.1178171425365</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>375.1348740725161</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8848,7 +8850,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>115.5109099618853</v>
+        <v>481.0695277581962</v>
       </c>
       <c r="M14" t="n">
         <v>498.831168659766</v>
@@ -8942,10 +8944,10 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9003,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>190.7148107956829</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M15" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>381.6805385660554</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9085,7 +9087,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9103,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>64.31013128815719</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L17" t="n">
-        <v>481.069527758196</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M17" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N17" t="n">
-        <v>498.6795285947802</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O17" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>465.8542658379009</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>464.100513539115</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q18" t="n">
         <v>484.1469440493127</v>
@@ -9319,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9331,16 +9333,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>385.5915703929544</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9401,25 +9403,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>546.3101998434627</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150259</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716183</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>361.589074527822</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9480,22 +9482,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279221</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291358</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378163</v>
+        <v>465.9293750477953</v>
       </c>
       <c r="P21" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9556,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9577,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>203.2524428583635</v>
       </c>
       <c r="L23" t="n">
-        <v>453.322231905261</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5074359500402</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O23" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
@@ -9659,7 +9661,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,19 +9722,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M24" t="n">
-        <v>579.3245936279221</v>
+        <v>181.3705437721216</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P24" t="n">
-        <v>180.0446044646217</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>547.9768619480852</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O26" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498007</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9956,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>462.5747547263939</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P27" t="n">
-        <v>466.3767193553316</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10045,13 +10047,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961648</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O29" t="n">
-        <v>300.4142109955939</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>452.5855512828691</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,22 +10193,22 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>550.5504466271778</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>549.2245073196783</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L32" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M32" t="n">
-        <v>571.1852249800523</v>
+        <v>86.17533235500345</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P32" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,16 +10430,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>578.6270469489275</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298237</v>
+        <v>268.1828480767087</v>
       </c>
       <c r="M33" t="n">
-        <v>268.7645418748068</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10507,7 +10509,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464871</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10525,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L35" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>547.8252218830993</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418183</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10662,28 +10664,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L36" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>181.3705437721212</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>549.2245073196785</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10741,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464871</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10820,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L38" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>547.8252218830993</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876112</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10899,25 +10901,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L39" t="n">
-        <v>462.5747547263935</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291358</v>
+        <v>179.6167914733353</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -10999,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039387</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N41" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>571.1449214366446</v>
+        <v>300.4142109955938</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11133,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M42" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>579.3997028378163</v>
+        <v>261.3177895070126</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11236,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>361.2933355520367</v>
+        <v>181.5591018660331</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P44" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11385,16 +11387,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>108.6396787202253</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651629</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q45" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -11470,10 +11472,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22547,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>264.9384534637941</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -22559,7 +22561,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>371.643733984288</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>37.52835274194667</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22762,16 +22764,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>160.3136836356015</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.62170359706346</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -22838,16 +22840,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>275.6272398561814</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22957,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,25 +22992,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>166.0590021200017</v>
       </c>
       <c r="Y7" t="n">
-        <v>55.80820220478464</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -23024,7 +23026,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>147.8852119100539</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -23039,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>287.4964384692063</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23182,7 +23184,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23197,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>44.65073890975818</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,25 +23229,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.13762512001833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23264,7 +23266,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>278.2847157029526</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23276,7 +23278,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -23318,7 +23320,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>386.8665051815428</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>41.73994404554497</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,10 +23506,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>273.5431721425759</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23555,13 +23557,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>266.7707787141795</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>41.73994404554497</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23732,7 +23734,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>279.9357469668483</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>215.7207098964967</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -23795,10 +23797,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>112.8421857026148</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>139.9992232913265</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>183.347408861919</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24026,7 +24028,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>295.2370319744276</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>72.88504712020615</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>255.4058996719153</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24266,7 +24268,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>333.7499474520712</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24379,10 +24381,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>182.7936591182001</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>338.2249804982994</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>75.02283897364646</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.2915140032632</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>86.02262841516162</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,19 +24685,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>202.2027565816683</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>249.41228319191</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24740,7 +24742,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -24841,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>53.10489128802323</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24917,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>234.9013593127088</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>329.3362674455093</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
@@ -24974,10 +24976,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -25132,7 +25134,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>18.4496713308867</v>
+        <v>163.7887810877123</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>29.46470453784474</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>348.9253100933448</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>198.0291291640731</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>325.8512571963663</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>320.4798063035074</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>18.44967133088691</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>86.02262841516111</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -25646,7 +25648,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.00949970901594</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>138.0318298857196</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>29.59543215801696</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25867,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>128.180968434465</v>
+        <v>401.8027025862334</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>65.46263412532761</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>59.47598749257449</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>443663.3416728848</v>
+        <v>443663.3416728846</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>443663.3416728845</v>
+        <v>443663.3416728846</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>443663.3416728846</v>
+        <v>443663.3416728847</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>443663.3416728846</v>
+        <v>443663.3416728847</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>499918.0186089049</v>
+        <v>443663.3416728848</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>499918.0186089049</v>
+        <v>499918.0186089048</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>499918.0186089048</v>
+        <v>499918.0186089047</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499918.0186089049</v>
+        <v>499918.0186089048</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>499918.0186089049</v>
+        <v>499918.0186089048</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>499918.0186089049</v>
+        <v>499918.0186089048</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499918.0186089049</v>
+        <v>499918.0186089048</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>443663.3416728846</v>
+        <v>499918.0186089049</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>90209.62182436744</v>
+      </c>
+      <c r="C2" t="n">
+        <v>90209.62182436744</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90209.62182436745</v>
+      </c>
+      <c r="E2" t="n">
+        <v>90209.62182436744</v>
+      </c>
+      <c r="F2" t="n">
+        <v>90209.62182436745</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90209.62182436747</v>
+      </c>
+      <c r="H2" t="n">
         <v>90209.62182436748</v>
       </c>
-      <c r="C2" t="n">
-        <v>90209.62182436751</v>
-      </c>
-      <c r="D2" t="n">
-        <v>90209.6218243675</v>
-      </c>
-      <c r="E2" t="n">
-        <v>90209.62182436745</v>
-      </c>
-      <c r="F2" t="n">
-        <v>90209.62182436748</v>
-      </c>
-      <c r="G2" t="n">
-        <v>90209.62182436748</v>
-      </c>
-      <c r="H2" t="n">
-        <v>101647.3149045896</v>
-      </c>
       <c r="I2" t="n">
-        <v>101647.3149045896</v>
+        <v>101647.3149045897</v>
       </c>
       <c r="J2" t="n">
         <v>101647.3149045896</v>
@@ -26350,10 +26352,10 @@
         <v>101647.3149045897</v>
       </c>
       <c r="O2" t="n">
+        <v>101647.3149045896</v>
+      </c>
+      <c r="P2" t="n">
         <v>101647.3149045897</v>
-      </c>
-      <c r="P2" t="n">
-        <v>90209.62182436751</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>25216.73195181806</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>120722.5169427568</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>8050.273149146122</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8050.273149146123</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8050.273149146123</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8050.273149146123</v>
+      </c>
+      <c r="F4" t="n">
         <v>8050.273149146124</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8050.273149146124</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8050.273149146124</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8050.273149146124</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8050.273149146123</v>
       </c>
       <c r="G4" t="n">
         <v>8050.273149146124</v>
       </c>
       <c r="H4" t="n">
+        <v>8050.273149146123</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9081.11648698882</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9081.11648698882</v>
+      </c>
+      <c r="K4" t="n">
         <v>9081.116486988822</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>9081.116486988822</v>
       </c>
-      <c r="J4" t="n">
-        <v>9081.116486988823</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9081.116486988823</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9081.116486988823</v>
-      </c>
       <c r="M4" t="n">
-        <v>9081.116486988823</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="N4" t="n">
-        <v>9081.116486988823</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="O4" t="n">
-        <v>9081.116486988823</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="P4" t="n">
-        <v>8050.273149146124</v>
+        <v>9081.11648698882</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-134147.0862131274</v>
       </c>
       <c r="C6" t="n">
-        <v>20478.63440499306</v>
+        <v>20478.634404993</v>
       </c>
       <c r="D6" t="n">
-        <v>20478.63440499306</v>
+        <v>20478.63440499302</v>
       </c>
       <c r="E6" t="n">
-        <v>54106.234404993</v>
+        <v>54106.23440499301</v>
       </c>
       <c r="F6" t="n">
+        <v>54106.23440499301</v>
+      </c>
+      <c r="G6" t="n">
+        <v>54106.23440499304</v>
+      </c>
+      <c r="H6" t="n">
         <v>54106.23440499305</v>
       </c>
-      <c r="G6" t="n">
-        <v>54106.23440499303</v>
-      </c>
-      <c r="H6" t="n">
-        <v>33162.12452455738</v>
-      </c>
       <c r="I6" t="n">
+        <v>33530.81542835467</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-61974.96956258414</v>
+      </c>
+      <c r="K6" t="n">
+        <v>58747.54738017269</v>
+      </c>
+      <c r="L6" t="n">
+        <v>58747.54738017273</v>
+      </c>
+      <c r="M6" t="n">
         <v>58747.54738017271</v>
       </c>
-      <c r="J6" t="n">
-        <v>-61974.96956258419</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
+        <v>58747.54738017277</v>
+      </c>
+      <c r="O6" t="n">
         <v>58747.54738017271</v>
       </c>
-      <c r="L6" t="n">
-        <v>58747.54738017271</v>
-      </c>
-      <c r="M6" t="n">
-        <v>58747.54738017268</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>58747.54738017273</v>
-      </c>
-      <c r="O6" t="n">
-        <v>58747.54738017273</v>
-      </c>
-      <c r="P6" t="n">
-        <v>54106.23440499306</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>94.82790735525987</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.399905760334</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34701,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N2" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="O2" t="n">
         <v>76.49136530850697</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,19 +34780,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N3" t="n">
-        <v>77.9459274203145</v>
+        <v>160.7937153846614</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>111.0748027298626</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N5" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34954,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35012,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>77.94592742031462</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N6" t="n">
-        <v>435.2356237478841</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L8" t="n">
-        <v>419.1474984608587</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>85.46778899800317</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>419.8550006816142</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N11" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O12" t="n">
-        <v>77.94592742031428</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>352.3878357835376</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>77.19886752926237</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N14" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>168.3155769623496</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>359.9096973612267</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35823,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>39.69056852337224</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L17" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603342</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q18" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36051,16 +36053,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>364.842669417354</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36123,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155941</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="P21" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>167.4878420635541</v>
       </c>
       <c r="L23" t="n">
-        <v>415.010189472638</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M23" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N23" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O23" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M24" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="N24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P24" t="n">
-        <v>158.2737632597931</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>510.5455990486534</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>440.0596680121644</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P27" t="n">
-        <v>444.6058781505029</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36765,13 +36767,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P28" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O29" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M32" t="n">
-        <v>533.7539620806206</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L33" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624791</v>
       </c>
       <c r="M33" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937751</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
@@ -37245,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>144.279479031587</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937751</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37540,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>144.2794790315871</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L39" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37719,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>533.7539620806206</v>
+        <v>263.0232516395697</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>556.2278131155941</v>
+        <v>238.1458997847904</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37956,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>324.0137127175907</v>
+        <v>144.2794790315871</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P44" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>85.46778899800312</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603342</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q45" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>
@@ -38190,10 +38192,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154057.1400920195</v>
+        <v>148397.3455155782</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19282386.12654756</v>
+        <v>19282386.12654758</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9802884.450357869</v>
+        <v>9802884.450357864</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>28.65193780215786</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>179.3449356073944</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>28.39359121538979</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>9.039874437751914</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -873,16 +873,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>131.9755589877488</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>169.4019074491786</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>82.98779106037802</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>74.07925546865125</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>271.1744826967958</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.995605349316558</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>50.79956318996859</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>54.12014366736861</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>95.7429254558911</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>5.560931021113761</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>57.03093853158182</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>74.07925546865171</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>141.4964795702968</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>125.656657488477</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1770,10 +1770,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>57.03093853158182</v>
+        <v>64.43237056408077</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>140.9371930256454</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>168.7910821663896</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>129.3935955607575</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>138.8951294267249</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>232.3024717866957</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2092,16 +2092,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>78.75316602916217</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>97.36779036966699</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>68.83205621563042</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>167.2258230149176</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>20.60836500151917</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>94.58894489649869</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>278.8916817513665</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>82.38632349887008</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>99.22889911337479</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2733,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>154.1156291734913</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>45.47741154879554</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>169.0644032947497</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429393</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>215.6004216660244</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>187.7303633741241</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3094,10 +3094,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>82.38632349887008</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>49.87597792716608</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>115.105571630339</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>386.18517611077</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>302.4493633883057</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3444,7 +3444,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>123.2089098739613</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100375</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>95.86591325725473</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3565,13 +3565,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>82.38632349887008</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>124.3387367898097</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.0567122119943</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3748,10 +3748,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>117.7395304238322</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>34.35248743867876</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3906,19 +3906,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>104.9037564455528</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>242.5084476311951</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>20.8290201005995</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4042,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>177.9261526099635</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4143,7 +4143,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4155,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>33.30824845179918</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>166.0023378552348</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>916.0466945778373</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C2" t="n">
-        <v>489.1459645911374</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D2" t="n">
-        <v>65.85334377613771</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E2" t="n">
-        <v>65.85334377613771</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F2" t="n">
-        <v>65.85334377613771</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L2" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="M2" t="n">
-        <v>1313.087264683184</v>
+        <v>358.3859952497895</v>
       </c>
       <c r="N2" t="n">
-        <v>1769.873171385915</v>
+        <v>358.3859952497895</v>
       </c>
       <c r="O2" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U2" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1741.232328914477</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W2" t="n">
-        <v>1741.232328914477</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="X2" t="n">
-        <v>1741.232328914477</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="Y2" t="n">
-        <v>1335.895058869367</v>
+        <v>1306.953707554057</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250717</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J3" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K3" t="n">
-        <v>772.8420314050604</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L3" t="n">
-        <v>1229.627938107791</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M3" t="n">
-        <v>1686.413844810522</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="N3" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O3" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4439,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.8845555819107</v>
+        <v>877.032378771316</v>
       </c>
       <c r="C4" t="n">
-        <v>36.91199246082673</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D4" t="n">
-        <v>36.91199246082673</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E4" t="n">
-        <v>36.91199246082673</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F4" t="n">
-        <v>36.91199246082673</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082673</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>78.10605253212941</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>304.6336537379666</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>659.3229750323874</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>1050.508770002638</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1836.468436740577</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1666.333389259712</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1422.994041485612</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U4" t="n">
-        <v>1142.809592985916</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V4" t="n">
-        <v>1142.809592985916</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="W4" t="n">
-        <v>867.9571891584293</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3932926042344</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="Y4" t="n">
-        <v>399.0505242939764</v>
+        <v>877.032378771316</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>887.1053432625264</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="C5" t="n">
-        <v>460.2046132758265</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="D5" t="n">
-        <v>36.91199246082673</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082673</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082673</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
         <v>399.5154512777223</v>
@@ -4579,13 +4579,13 @@
         <v>856.3013579804531</v>
       </c>
       <c r="N5" t="n">
-        <v>1313.087264683184</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O5" t="n">
-        <v>1313.087264683184</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P5" t="n">
-        <v>1313.087264683184</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
         <v>1728.043288159434</v>
@@ -4606,13 +4606,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1449.208273341684</v>
       </c>
       <c r="X5" t="n">
-        <v>1712.290977599166</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1306.953707554057</v>
+        <v>866.3752366819779</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273857</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="K6" t="n">
-        <v>772.8420314050604</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L6" t="n">
-        <v>850.0084995511719</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M6" t="n">
-        <v>1306.794406253903</v>
+        <v>950.4838058662884</v>
       </c>
       <c r="N6" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4676,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4685,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="7">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1120.093114985063</v>
+        <v>1104.150598301479</v>
       </c>
       <c r="C7" t="n">
-        <v>948.1205518639796</v>
+        <v>932.178035180395</v>
       </c>
       <c r="D7" t="n">
-        <v>784.8037789907503</v>
+        <v>768.8612623071657</v>
       </c>
       <c r="E7" t="n">
-        <v>618.5955731436038</v>
+        <v>602.6530564600192</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>430.7912822345796</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>264.5343125288118</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>120.7380440369662</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4755,22 +4755,22 @@
         <v>1628.425962247645</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U7" t="n">
-        <v>1385.086614473545</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V7" t="n">
-        <v>1385.086614473545</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="W7" t="n">
-        <v>1385.086614473545</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="X7" t="n">
-        <v>1310.259083697129</v>
+        <v>1104.150598301479</v>
       </c>
       <c r="Y7" t="n">
-        <v>1310.259083697129</v>
+        <v>1104.150598301479</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>608.6939898724443</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="C8" t="n">
-        <v>608.6939898724443</v>
+        <v>1314.331598927777</v>
       </c>
       <c r="D8" t="n">
-        <v>334.7803709867919</v>
+        <v>891.0389781127776</v>
       </c>
       <c r="E8" t="n">
-        <v>334.7803709867919</v>
+        <v>465.0620382606352</v>
       </c>
       <c r="F8" t="n">
-        <v>334.7803709867919</v>
+        <v>39.93785645003538</v>
       </c>
       <c r="G8" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="N8" t="n">
-        <v>856.3013579804531</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O8" t="n">
-        <v>856.3013579804531</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P8" t="n">
-        <v>1313.087264683184</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X8" t="n">
-        <v>1433.879624209084</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="Y8" t="n">
-        <v>1028.542354163974</v>
+        <v>1741.232328914477</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L9" t="n">
-        <v>493.6978991635576</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M9" t="n">
-        <v>932.0278096358751</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="N9" t="n">
-        <v>932.0278096358751</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="O9" t="n">
-        <v>932.0278096358751</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>911.6745856373311</v>
+        <v>999.433241954857</v>
       </c>
       <c r="C10" t="n">
-        <v>739.7020225162471</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D10" t="n">
-        <v>739.7020225162471</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E10" t="n">
-        <v>573.4938166691006</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F10" t="n">
-        <v>401.632042443661</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G10" t="n">
-        <v>235.3750727378932</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H10" t="n">
-        <v>91.57880424604755</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>1516.849542336539</v>
       </c>
       <c r="W10" t="n">
-        <v>1570.74721921385</v>
+        <v>1241.997138509052</v>
       </c>
       <c r="X10" t="n">
-        <v>1328.183322659655</v>
+        <v>999.433241954857</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.840554349397</v>
+        <v>999.433241954857</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>498.7095937040554</v>
+        <v>856.614578510413</v>
       </c>
       <c r="C11" t="n">
-        <v>71.80886371735552</v>
+        <v>856.614578510413</v>
       </c>
       <c r="D11" t="n">
-        <v>71.80886371735552</v>
+        <v>856.614578510413</v>
       </c>
       <c r="E11" t="n">
-        <v>71.80886371735552</v>
+        <v>856.614578510413</v>
       </c>
       <c r="F11" t="n">
-        <v>71.80886371735552</v>
+        <v>431.4903966998132</v>
       </c>
       <c r="G11" t="n">
-        <v>71.80886371735552</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H11" t="n">
-        <v>71.80886371735552</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J11" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L11" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M11" t="n">
-        <v>1313.087264683184</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N11" t="n">
-        <v>1769.873171385915</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O11" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P11" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
@@ -5071,22 +5071,22 @@
         <v>1741.232328914477</v>
       </c>
       <c r="T11" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U11" t="n">
-        <v>1741.232328914477</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V11" t="n">
-        <v>1741.232328914477</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="W11" t="n">
-        <v>1735.615226872948</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="X11" t="n">
-        <v>1323.895228040695</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="Y11" t="n">
-        <v>918.5579579955854</v>
+        <v>856.614578510413</v>
       </c>
     </row>
     <row r="12">
@@ -5102,43 +5102,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I12" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J12" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K12" t="n">
-        <v>501.1445421254694</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L12" t="n">
-        <v>501.1445421254694</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1445421254694</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N12" t="n">
-        <v>957.9304488282003</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="O12" t="n">
-        <v>957.9304488282003</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P12" t="n">
-        <v>1414.716355530931</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q12" t="n">
         <v>1763.580312956633</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>911.6745856373311</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C13" t="n">
-        <v>739.7020225162471</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D13" t="n">
-        <v>576.3852496430178</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1770437958713</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F13" t="n">
-        <v>238.3152695704318</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G13" t="n">
-        <v>238.3152695704318</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H13" t="n">
-        <v>94.51900107858614</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K13" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L13" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M13" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N13" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T13" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U13" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V13" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="W13" t="n">
-        <v>1570.74721921385</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="X13" t="n">
-        <v>1328.183322659655</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="Y13" t="n">
-        <v>1101.840554349397</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>887.1053432625264</v>
+        <v>939.5037091697144</v>
       </c>
       <c r="C14" t="n">
-        <v>460.2046132758265</v>
+        <v>512.6029791830144</v>
       </c>
       <c r="D14" t="n">
-        <v>36.91199246082673</v>
+        <v>512.6029791830144</v>
       </c>
       <c r="E14" t="n">
-        <v>36.91199246082673</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082673</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082673</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L14" t="n">
-        <v>475.2419029331443</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M14" t="n">
-        <v>932.0278096358751</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N14" t="n">
-        <v>1388.813716338606</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="O14" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P14" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q14" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W14" t="n">
-        <v>1718.673706386309</v>
+        <v>1344.840979214824</v>
       </c>
       <c r="X14" t="n">
-        <v>1306.953707554057</v>
+        <v>1344.840979214824</v>
       </c>
       <c r="Y14" t="n">
-        <v>1306.953707554057</v>
+        <v>939.5037091697144</v>
       </c>
     </row>
     <row r="15">
@@ -5339,43 +5339,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L15" t="n">
-        <v>493.6978991635576</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="M15" t="n">
-        <v>950.4838058662883</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N15" t="n">
-        <v>950.4838058662883</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O15" t="n">
-        <v>950.4838058662883</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="P15" t="n">
-        <v>1306.794406253903</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q15" t="n">
         <v>1763.580312956633</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>911.6745856373311</v>
+        <v>445.8295323973309</v>
       </c>
       <c r="C16" t="n">
-        <v>739.7020225162471</v>
+        <v>273.8569692762469</v>
       </c>
       <c r="D16" t="n">
-        <v>576.3852496430178</v>
+        <v>273.8569692762469</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1770437958713</v>
+        <v>273.8569692762469</v>
       </c>
       <c r="F16" t="n">
-        <v>238.3152695704318</v>
+        <v>101.9951950508073</v>
       </c>
       <c r="G16" t="n">
-        <v>238.3152695704318</v>
+        <v>101.9951950508073</v>
       </c>
       <c r="H16" t="n">
-        <v>94.51900107858614</v>
+        <v>101.9951950508073</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K16" t="n">
-        <v>36.91199246082673</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6013137552475</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M16" t="n">
-        <v>782.7871087254983</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N16" t="n">
-        <v>1160.278619601534</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O16" t="n">
-        <v>1515.706748281297</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P16" t="n">
-        <v>1806.305960203198</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S16" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U16" t="n">
-        <v>1845.599623041337</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V16" t="n">
-        <v>1845.599623041337</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="W16" t="n">
-        <v>1570.74721921385</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="X16" t="n">
-        <v>1328.183322659655</v>
+        <v>862.3382694196545</v>
       </c>
       <c r="Y16" t="n">
-        <v>1101.840554349397</v>
+        <v>635.9955011093965</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1028.542354163974</v>
+        <v>1349.810715366798</v>
       </c>
       <c r="C17" t="n">
-        <v>1028.542354163974</v>
+        <v>922.9099853800977</v>
       </c>
       <c r="D17" t="n">
-        <v>605.2497333489746</v>
+        <v>922.9099853800977</v>
       </c>
       <c r="E17" t="n">
-        <v>179.2727934968322</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J17" t="n">
         <v>399.5154512777223</v>
@@ -5521,46 +5521,46 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L17" t="n">
+        <v>856.3013579804531</v>
+      </c>
+      <c r="M17" t="n">
+        <v>856.3013579804531</v>
+      </c>
+      <c r="N17" t="n">
+        <v>856.3013579804531</v>
+      </c>
+      <c r="O17" t="n">
+        <v>856.3013579804531</v>
+      </c>
+      <c r="P17" t="n">
         <v>1313.087264683184</v>
       </c>
-      <c r="M17" t="n">
-        <v>1769.873171385915</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1845.599623041337</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1845.599623041337</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1845.599623041337</v>
-      </c>
       <c r="Q17" t="n">
-        <v>1845.599623041337</v>
+        <v>1769.172744187367</v>
       </c>
       <c r="R17" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.599623041337</v>
+        <v>1349.810715366798</v>
       </c>
       <c r="V17" t="n">
-        <v>1845.599623041337</v>
+        <v>1349.810715366798</v>
       </c>
       <c r="W17" t="n">
-        <v>1845.599623041337</v>
+        <v>1349.810715366798</v>
       </c>
       <c r="X17" t="n">
-        <v>1433.879624209084</v>
+        <v>1349.810715366798</v>
       </c>
       <c r="Y17" t="n">
-        <v>1028.542354163974</v>
+        <v>1349.810715366798</v>
       </c>
     </row>
     <row r="18">
@@ -5576,40 +5576,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E18" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F18" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K18" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L18" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M18" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N18" t="n">
-        <v>932.0278096358751</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O18" t="n">
-        <v>932.0278096358751</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="P18" t="n">
         <v>1388.813716338606</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>352.5700351781119</v>
+        <v>339.5851571584334</v>
       </c>
       <c r="C19" t="n">
-        <v>352.5700351781119</v>
+        <v>167.6125940373495</v>
       </c>
       <c r="D19" t="n">
-        <v>352.5700351781119</v>
+        <v>167.6125940373495</v>
       </c>
       <c r="E19" t="n">
-        <v>352.5700351781119</v>
+        <v>167.6125940373495</v>
       </c>
       <c r="F19" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G19" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K19" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L19" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M19" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N19" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O19" t="n">
         <v>1555.000411119436</v>
@@ -5697,28 +5697,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R19" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S19" t="n">
-        <v>1675.464575560472</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T19" t="n">
-        <v>1432.125227786371</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.940779286676</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="V19" t="n">
-        <v>1011.64266875463</v>
+        <v>1273.510194562439</v>
       </c>
       <c r="W19" t="n">
-        <v>1011.64266875463</v>
+        <v>998.657790734952</v>
       </c>
       <c r="X19" t="n">
-        <v>769.0787722004354</v>
+        <v>756.093894180757</v>
       </c>
       <c r="Y19" t="n">
-        <v>542.7360038901775</v>
+        <v>529.7511258704991</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1610.950661640634</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="C20" t="n">
-        <v>1184.049931653934</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="D20" t="n">
-        <v>760.7573108389344</v>
+        <v>1002.458637934807</v>
       </c>
       <c r="E20" t="n">
-        <v>334.7803709867919</v>
+        <v>576.4816980826646</v>
       </c>
       <c r="F20" t="n">
-        <v>334.7803709867919</v>
+        <v>151.3575162720648</v>
       </c>
       <c r="G20" t="n">
-        <v>334.7803709867919</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J20" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K20" t="n">
-        <v>36.91199246082673</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L20" t="n">
-        <v>36.91199246082673</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M20" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N20" t="n">
-        <v>950.4838058662883</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O20" t="n">
-        <v>1407.269712569019</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P20" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q20" t="n">
         <v>1728.043288159434</v>
@@ -5813,46 +5813,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F21" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H21" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J21" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K21" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L21" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M21" t="n">
-        <v>950.4838058662883</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N21" t="n">
-        <v>1407.269712569019</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O21" t="n">
-        <v>1845.599623041337</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P21" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q21" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R21" t="n">
         <v>1845.599623041337</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1046.471855267684</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="C22" t="n">
-        <v>948.1205518639796</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="D22" t="n">
-        <v>784.8037789907503</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="E22" t="n">
-        <v>618.5955731436038</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="F22" t="n">
-        <v>446.7337989181643</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="G22" t="n">
-        <v>280.4768292123964</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="H22" t="n">
-        <v>136.6805607205508</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K22" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L22" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M22" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N22" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O22" t="n">
-        <v>1555.000411119436</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P22" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q22" t="n">
         <v>1845.599623041337</v>
@@ -5940,22 +5940,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T22" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U22" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V22" t="n">
-        <v>1563.888155649365</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W22" t="n">
-        <v>1289.035751821878</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X22" t="n">
-        <v>1046.471855267684</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y22" t="n">
-        <v>1046.471855267684</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2224.911252462376</v>
+        <v>1229.288386629041</v>
       </c>
       <c r="C23" t="n">
-        <v>2055.996279720035</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="D23" t="n">
-        <v>1632.703658905035</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="E23" t="n">
-        <v>1206.726719052893</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="F23" t="n">
-        <v>781.6025372422929</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G23" t="n">
         <v>377.2634748317415</v>
@@ -5986,55 +5986,55 @@
         <v>79.39509630577632</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>572.9146475090616</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L23" t="n">
-        <v>1123.5801824935</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M23" t="n">
-        <v>1674.245717477938</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N23" t="n">
-        <v>2224.911252462376</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O23" t="n">
-        <v>2224.911252462376</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P23" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462376</v>
+        <v>1983.169151202445</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462376</v>
+        <v>1625.679736328694</v>
       </c>
       <c r="W23" t="n">
-        <v>2224.911252462376</v>
+        <v>1229.288386629041</v>
       </c>
       <c r="X23" t="n">
-        <v>2224.911252462376</v>
+        <v>1229.288386629041</v>
       </c>
       <c r="Y23" t="n">
-        <v>2224.911252462376</v>
+        <v>1229.288386629041</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L24" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M24" t="n">
-        <v>751.8547856608812</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N24" t="n">
-        <v>751.8547856608812</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O24" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P24" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R24" t="n">
         <v>1853.185855629757</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>623.3523977951304</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C25" t="n">
-        <v>451.3798346740464</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D25" t="n">
-        <v>288.0630618008171</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E25" t="n">
-        <v>288.0630618008171</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="F25" t="n">
-        <v>288.0630618008171</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008171</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6156,7 +6156,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
         <v>1451.88378161995</v>
@@ -6171,28 +6171,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T25" t="n">
-        <v>1934.533291375449</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U25" t="n">
-        <v>1838.988902591107</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V25" t="n">
-        <v>1557.277435199136</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W25" t="n">
-        <v>1282.425031371649</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X25" t="n">
-        <v>1039.861134817454</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y25" t="n">
-        <v>813.5183665071961</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>471.3989550359474</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="C26" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D26" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E26" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
         <v>407.101683866143</v>
@@ -6232,46 +6232,46 @@
         <v>407.101683866143</v>
       </c>
       <c r="L26" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M26" t="n">
-        <v>957.767218850581</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N26" t="n">
-        <v>1508.432753835019</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O26" t="n">
-        <v>1508.432753835019</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P26" t="n">
-        <v>1768.825772958193</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q26" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U26" t="n">
-        <v>1966.556343058788</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V26" t="n">
-        <v>1684.847573612963</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W26" t="n">
-        <v>1288.45622391331</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X26" t="n">
-        <v>876.7362250810571</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="Y26" t="n">
-        <v>471.3989550359474</v>
+        <v>804.1642048184415</v>
       </c>
     </row>
     <row r="27">
@@ -6287,37 +6287,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L27" t="n">
-        <v>751.8547856608814</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.520320645319</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N27" t="n">
-        <v>1302.520320645319</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O27" t="n">
         <v>1853.185855629757</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1127.679347573484</v>
+        <v>792.8526545450782</v>
       </c>
       <c r="C28" t="n">
-        <v>955.7067844524004</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="D28" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E28" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F28" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G28" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6405,31 +6405,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q28" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R28" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T28" t="n">
-        <v>1981.571904688275</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U28" t="n">
-        <v>1981.571904688275</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V28" t="n">
-        <v>1699.860437296304</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="W28" t="n">
-        <v>1699.860437296304</v>
+        <v>1209.361391567402</v>
       </c>
       <c r="X28" t="n">
-        <v>1544.188084595808</v>
+        <v>1209.361391567402</v>
       </c>
       <c r="Y28" t="n">
-        <v>1317.84531628555</v>
+        <v>983.0186232571439</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1399.725618125736</v>
+        <v>1333.927509518027</v>
       </c>
       <c r="C29" t="n">
-        <v>1399.725618125736</v>
+        <v>907.0267795313274</v>
       </c>
       <c r="D29" t="n">
-        <v>976.4329973107363</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="E29" t="n">
-        <v>550.4560574585938</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="F29" t="n">
-        <v>125.331875647994</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G29" t="n">
-        <v>125.331875647994</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H29" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K29" t="n">
-        <v>44.49822504924752</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L29" t="n">
-        <v>595.1637600336854</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M29" t="n">
-        <v>595.1637600336854</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N29" t="n">
-        <v>1145.829295018124</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O29" t="n">
-        <v>1696.494830002561</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P29" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.911252462376</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W29" t="n">
-        <v>2224.911252462376</v>
+        <v>1333.927509518027</v>
       </c>
       <c r="X29" t="n">
-        <v>2224.911252462376</v>
+        <v>1333.927509518027</v>
       </c>
       <c r="Y29" t="n">
-        <v>1819.573982417266</v>
+        <v>1333.927509518027</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>316.1957143288386</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K30" t="n">
-        <v>316.1957143288386</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L30" t="n">
-        <v>316.1957143288386</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M30" t="n">
-        <v>838.37484378254</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N30" t="n">
-        <v>1389.040378766978</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O30" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P30" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q30" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.5772905989112</v>
+        <v>689.8407992411743</v>
       </c>
       <c r="C31" t="n">
-        <v>96.60472747782725</v>
+        <v>517.8682361200903</v>
       </c>
       <c r="D31" t="n">
-        <v>44.49822504924752</v>
+        <v>354.551463246861</v>
       </c>
       <c r="E31" t="n">
-        <v>44.49822504924752</v>
+        <v>354.551463246861</v>
       </c>
       <c r="F31" t="n">
-        <v>44.49822504924752</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G31" t="n">
-        <v>44.49822504924752</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6648,25 +6648,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U31" t="n">
-        <v>1484.213795394888</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.502328002917</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W31" t="n">
-        <v>927.6499241754298</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X31" t="n">
-        <v>685.0860276212348</v>
+        <v>880.0067679532399</v>
       </c>
       <c r="Y31" t="n">
-        <v>458.7432593109769</v>
+        <v>880.0067679532399</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>234.12485472008</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="C32" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D32" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E32" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L32" t="n">
         <v>1508.432753835019</v>
       </c>
       <c r="M32" t="n">
-        <v>1556.689382596035</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N32" t="n">
-        <v>1556.689382596035</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O32" t="n">
-        <v>2107.354917580473</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P32" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V32" t="n">
-        <v>1867.421837588626</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W32" t="n">
-        <v>1471.030487888972</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X32" t="n">
-        <v>1059.31048905672</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="Y32" t="n">
-        <v>653.97321901161</v>
+        <v>804.1642048184415</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>838.3748437825399</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M33" t="n">
-        <v>838.3748437825399</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N33" t="n">
-        <v>1389.040378766978</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O33" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P33" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q33" t="n">
         <v>1853.185855629757</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573484</v>
+        <v>438.7123380797772</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K34" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L34" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N34" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O34" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P34" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R34" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S34" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T34" t="n">
-        <v>2177.872639149549</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U34" t="n">
-        <v>2177.872639149549</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595808</v>
+        <v>855.2210751021008</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.84531628555</v>
+        <v>628.8783067918429</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>746.7056659857641</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="C35" t="n">
-        <v>746.7056659857641</v>
+        <v>1214.362747989863</v>
       </c>
       <c r="D35" t="n">
-        <v>746.7056659857641</v>
+        <v>1214.362747989863</v>
       </c>
       <c r="E35" t="n">
-        <v>746.7056659857641</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F35" t="n">
-        <v>746.7056659857641</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G35" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>957.7672188505811</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L35" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M35" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N35" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O35" t="n">
-        <v>1508.432753835019</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P35" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T35" t="n">
         <v>1899.61838738015</v>
       </c>
       <c r="U35" t="n">
-        <v>1899.61838738015</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V35" t="n">
-        <v>1542.128972506399</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W35" t="n">
-        <v>1542.128972506399</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X35" t="n">
-        <v>1542.128972506399</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="Y35" t="n">
-        <v>1136.791702461289</v>
+        <v>1641.263477976562</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L36" t="n">
-        <v>866.8612493132766</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M36" t="n">
-        <v>866.8612493132766</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="N36" t="n">
-        <v>866.8612493132766</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O36" t="n">
-        <v>866.8612493132766</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P36" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R36" t="n">
         <v>1853.185855629757</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1127.679347573484</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C37" t="n">
-        <v>955.7067844524004</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D37" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G37" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M37" t="n">
         <v>1074.392270743914</v>
@@ -7110,37 +7110,37 @@
         <v>1451.88378161995</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R37" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S37" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T37" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U37" t="n">
-        <v>2224.911252462376</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="V37" t="n">
-        <v>2061.60438497749</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="W37" t="n">
-        <v>1786.751981150003</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X37" t="n">
-        <v>1544.188084595808</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y37" t="n">
-        <v>1317.84531628555</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>878.4367930577017</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="C38" t="n">
-        <v>878.4367930577017</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D38" t="n">
-        <v>878.4367930577017</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E38" t="n">
-        <v>781.6025372422929</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F38" t="n">
-        <v>781.6025372422929</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G38" t="n">
         <v>377.2634748317415</v>
@@ -7171,37 +7171,37 @@
         <v>79.39509630577632</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K38" t="n">
-        <v>957.7672188505811</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L38" t="n">
-        <v>957.7672188505811</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M38" t="n">
-        <v>957.7672188505811</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N38" t="n">
-        <v>957.7672188505811</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O38" t="n">
-        <v>1100.603903091852</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P38" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
         <v>1899.61838738015</v>
@@ -7210,16 +7210,16 @@
         <v>1641.263477976562</v>
       </c>
       <c r="V38" t="n">
-        <v>1283.774063102811</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W38" t="n">
-        <v>1283.774063102811</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X38" t="n">
-        <v>1283.774063102811</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="Y38" t="n">
-        <v>878.4367930577017</v>
+        <v>804.1642048184415</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L39" t="n">
-        <v>595.1637600336855</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M39" t="n">
-        <v>595.1637600336855</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N39" t="n">
-        <v>751.8547856608812</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O39" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P39" t="n">
         <v>1853.185855629757</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7362,22 +7362,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T40" t="n">
-        <v>1981.571904688276</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U40" t="n">
-        <v>1981.571904688276</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V40" t="n">
-        <v>1699.860437296305</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W40" t="n">
-        <v>1699.860437296305</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X40" t="n">
-        <v>1457.29654074211</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1780.689568770218</v>
+        <v>894.6915758509472</v>
       </c>
       <c r="C41" t="n">
-        <v>1353.788838783518</v>
+        <v>467.7908458642473</v>
       </c>
       <c r="D41" t="n">
-        <v>930.4962179685185</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E41" t="n">
-        <v>504.5192781163761</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F41" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G41" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H41" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K41" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L41" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M41" t="n">
-        <v>957.7672188505811</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N41" t="n">
-        <v>957.7672188505811</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O41" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P41" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T41" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U41" t="n">
-        <v>1780.689568770218</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V41" t="n">
-        <v>1780.689568770218</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W41" t="n">
-        <v>1780.689568770218</v>
+        <v>1349.239422403769</v>
       </c>
       <c r="X41" t="n">
-        <v>1780.689568770218</v>
+        <v>1349.239422403769</v>
       </c>
       <c r="Y41" t="n">
-        <v>1780.689568770218</v>
+        <v>1314.539940142477</v>
       </c>
     </row>
     <row r="42">
@@ -7478,40 +7478,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J42" t="n">
-        <v>51.94486801115936</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>51.94486801115936</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L42" t="n">
-        <v>602.6104029955974</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M42" t="n">
-        <v>602.6104029955974</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N42" t="n">
-        <v>602.6104029955974</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O42" t="n">
-        <v>838.3748437825399</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P42" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q42" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1127.679347573484</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C43" t="n">
-        <v>955.7067844524003</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D43" t="n">
-        <v>792.390011579171</v>
+        <v>150.4616153982907</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320245</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7578,43 +7578,43 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M43" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N43" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O43" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P43" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q43" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R43" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S43" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T43" t="n">
-        <v>1934.533291375449</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U43" t="n">
-        <v>1654.348842875753</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V43" t="n">
-        <v>1372.637375483782</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W43" t="n">
-        <v>1127.679347573484</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X43" t="n">
-        <v>1127.679347573484</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y43" t="n">
-        <v>1127.679347573484</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1212.675578485385</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C44" t="n">
-        <v>1191.636164242355</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D44" t="n">
-        <v>768.3435434273551</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E44" t="n">
-        <v>342.3666035752127</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F44" t="n">
-        <v>342.3666035752127</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G44" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
-        <v>407.101683866143</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M44" t="n">
-        <v>407.101683866143</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N44" t="n">
-        <v>549.9383681074142</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O44" t="n">
-        <v>1100.603903091852</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P44" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q44" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U44" t="n">
-        <v>1966.556343058788</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V44" t="n">
-        <v>1609.066928185038</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W44" t="n">
-        <v>1212.675578485385</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X44" t="n">
-        <v>1212.675578485385</v>
+        <v>1186.939807287403</v>
       </c>
       <c r="Y44" t="n">
-        <v>1212.675578485385</v>
+        <v>781.6025372422929</v>
       </c>
     </row>
     <row r="45">
@@ -7715,40 +7715,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>874.3078922751886</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="L45" t="n">
-        <v>874.3078922751886</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M45" t="n">
-        <v>874.3078922751886</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N45" t="n">
-        <v>874.3078922751886</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O45" t="n">
-        <v>874.3078922751886</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P45" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q45" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
         <v>1853.185855629757</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>729.0902991667037</v>
+        <v>861.6538096079925</v>
       </c>
       <c r="C46" t="n">
-        <v>557.1177360456197</v>
+        <v>689.6812464869084</v>
       </c>
       <c r="D46" t="n">
-        <v>393.8009631723904</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="E46" t="n">
-        <v>393.8009631723904</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F46" t="n">
-        <v>221.9391889469508</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G46" t="n">
-        <v>221.9391889469508</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H46" t="n">
-        <v>78.14292045510524</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
         <v>101.9895532734055</v>
@@ -7815,7 +7815,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
         <v>1451.88378161995</v>
@@ -7827,31 +7827,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S46" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T46" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U46" t="n">
-        <v>1944.72680396268</v>
+        <v>1727.553143168989</v>
       </c>
       <c r="V46" t="n">
-        <v>1663.015336570709</v>
+        <v>1445.841675777018</v>
       </c>
       <c r="W46" t="n">
-        <v>1388.162932743222</v>
+        <v>1278.162546630316</v>
       </c>
       <c r="X46" t="n">
-        <v>1145.599036189027</v>
+        <v>1278.162546630316</v>
       </c>
       <c r="Y46" t="n">
-        <v>919.2562678787694</v>
+        <v>1051.819778320058</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>362.152477837778</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>113.8823246645311</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,13 +8063,13 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726621</v>
+        <v>101.0427079326424</v>
       </c>
       <c r="N3" t="n">
-        <v>182.1367435982031</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8078,10 +8078,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>62.24691767208638</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>132.9935626255638</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8227,16 +8227,16 @@
         <v>498.831168659766</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q5" t="n">
-        <v>455.2721730654567</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,22 +8291,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>100.4610141345442</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>464.1005135391149</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8318,7 +8318,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>480.0371081600191</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
-        <v>455.2721730654567</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M9" t="n">
-        <v>465.8542658379013</v>
+        <v>101.0427079326423</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8549,13 +8549,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8622,7 +8622,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8631,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>113.8823246645311</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>483.7991395936675</v>
@@ -8777,19 +8777,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738758</v>
+        <v>99.28895563385595</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.1348740725161</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8859,7 +8859,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>481.0695277581962</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>498.6795285947802</v>
+        <v>456.4271212953047</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P14" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
-        <v>381.6805385660554</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.1469440493127</v>
+        <v>100.6929657092928</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9099,13 +9099,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>299.5718579722078</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.31013128815719</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L17" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>113.770988142953</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>112.2315174240589</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>464.100513539115</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>183.9656051068831</v>
       </c>
       <c r="P18" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q18" t="n">
         <v>484.1469440493127</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9336,7 +9336,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>134.3202603144915</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L20" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>361.589074527822</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>483.7991395936675</v>
@@ -9488,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>465.9293750477953</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9573,13 +9573,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>299.5718579722078</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>203.2524428583635</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L23" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L24" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>181.3705437721216</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>577.9986543204227</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,25 +9880,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150257</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N26" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P26" t="n">
-        <v>300.5986134498007</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,25 +9950,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
-        <v>462.5747547263939</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378161</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10047,13 +10047,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961648</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L29" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M29" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P29" t="n">
-        <v>452.5855512828691</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>175.9092261537768</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10199,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>550.5504466271778</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M32" t="n">
-        <v>86.17533235500345</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,31 +10424,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>268.1828480767087</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464871</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10588,10 +10588,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>591.9924139104033</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L35" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
@@ -10600,16 +10600,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P35" t="n">
-        <v>181.8548408418183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>372.7867989824566</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10682,13 +10682,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>549.2245073196785</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464871</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10758,7 +10758,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961657</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>111.3736009736648</v>
       </c>
       <c r="M38" t="n">
         <v>37.43126289943181</v>
@@ -10837,16 +10837,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>181.6704383876112</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P38" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,28 +10898,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>179.6167914733353</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>579.3997028378162</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P39" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11001,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039387</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>300.4142109955938</v>
+        <v>547.9365584046775</v>
       </c>
       <c r="P41" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
-        <v>578.7428998298236</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11153,16 +11153,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>261.3177895070126</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11229,7 +11229,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>402.0534574160413</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
@@ -11299,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>181.5591018660331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>593.6187724716181</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P44" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489274</v>
+        <v>542.3310383704943</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>458.854857777643</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>371.643733984288</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22606,7 +22606,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -22615,7 +22615,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>221.9389617372642</v>
       </c>
     </row>
     <row r="3">
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>141.8592462744834</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>37.52835274194667</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22761,16 +22761,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -22846,13 +22846,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>275.6272398561814</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>231.88198989548</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22962,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>15.78309151674877</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22995,19 +22995,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>166.0590021200017</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>147.8852119100539</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>397.3000664371293</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -23086,10 +23086,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>119.4532742999046</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.65073890975818</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -23238,7 +23238,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23269,16 +23269,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>304.5527463305547</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>386.8665051815428</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>41.73994404554497</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -23478,13 +23478,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>150.0000851585037</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>280.2206908833242</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -23512,10 +23512,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -23557,13 +23557,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>266.7707787141795</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>41.73994404554497</v>
+        <v>34.33851201304601</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,16 +23734,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>279.9357469668483</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -23752,7 +23752,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>86.98027814316222</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23797,10 +23797,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23901,13 +23901,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>40.74956092242769</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>139.9992232913265</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183.347408861919</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>321.5425057572837</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>72.88504712020615</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>29.93882636149637</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,19 +24208,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>255.4058996719153</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>235.1629953080327</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>45.91410070006346</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>182.7936591182001</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>75.02283897364646</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>325.2164753450601</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>71.02393837649835</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>86.02262841516162</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>249.41228319191</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>223.3630329079068</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24852,10 +24852,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>24.53783592262855</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>234.9013593127088</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24934,10 +24934,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>325.2164753450601</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>114.6701458615089</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>163.7887810877123</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.46470453784474</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>119.2678070653153</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -25222,7 +25222,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>154.1736941407375</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080138</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>325.8512571963663</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>325.2164753450601</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>45.91410070006347</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>86.02262841516111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -25648,7 +25648,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>138.0318298857196</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>366.9314099059798</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>59.6423673431222</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>29.59543215801696</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>401.8027025862334</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>229.6766462339667</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>65.46263412532761</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>106.1015419339773</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>443663.3416728846</v>
+        <v>443663.3416728845</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>443663.3416728847</v>
+        <v>443663.3416728845</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>443663.3416728846</v>
+        <v>443663.3416728847</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499918.0186089048</v>
+        <v>499918.018608905</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>90209.62182436745</v>
+      </c>
+      <c r="C2" t="n">
+        <v>90209.62182436748</v>
+      </c>
+      <c r="D2" t="n">
         <v>90209.62182436744</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>90209.62182436747</v>
+      </c>
+      <c r="F2" t="n">
+        <v>90209.62182436747</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90209.62182436745</v>
+      </c>
+      <c r="H2" t="n">
         <v>90209.62182436744</v>
-      </c>
-      <c r="D2" t="n">
-        <v>90209.62182436745</v>
-      </c>
-      <c r="E2" t="n">
-        <v>90209.62182436744</v>
-      </c>
-      <c r="F2" t="n">
-        <v>90209.62182436745</v>
-      </c>
-      <c r="G2" t="n">
-        <v>90209.62182436747</v>
-      </c>
-      <c r="H2" t="n">
-        <v>90209.62182436748</v>
       </c>
       <c r="I2" t="n">
         <v>101647.3149045897</v>
       </c>
       <c r="J2" t="n">
-        <v>101647.3149045896</v>
+        <v>101647.3149045897</v>
       </c>
       <c r="K2" t="n">
-        <v>101647.3149045896</v>
+        <v>101647.3149045897</v>
       </c>
       <c r="L2" t="n">
         <v>101647.3149045897</v>
       </c>
       <c r="M2" t="n">
-        <v>101647.3149045896</v>
+        <v>101647.3149045897</v>
       </c>
       <c r="N2" t="n">
         <v>101647.3149045897</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25216.73195181806</v>
+        <v>25216.73195181807</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427568</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8050.273149146122</v>
+        <v>8050.273149146124</v>
       </c>
       <c r="C4" t="n">
-        <v>8050.273149146123</v>
+        <v>8050.273149146125</v>
       </c>
       <c r="D4" t="n">
-        <v>8050.273149146123</v>
+        <v>8050.273149146124</v>
       </c>
       <c r="E4" t="n">
-        <v>8050.273149146123</v>
+        <v>8050.273149146124</v>
       </c>
       <c r="F4" t="n">
         <v>8050.273149146124</v>
       </c>
       <c r="G4" t="n">
+        <v>8050.273149146123</v>
+      </c>
+      <c r="H4" t="n">
         <v>8050.273149146124</v>
       </c>
-      <c r="H4" t="n">
-        <v>8050.273149146123</v>
-      </c>
       <c r="I4" t="n">
-        <v>9081.11648698882</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="J4" t="n">
-        <v>9081.11648698882</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="K4" t="n">
         <v>9081.116486988822</v>
       </c>
       <c r="L4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="M4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="N4" t="n">
         <v>9081.116486988822</v>
       </c>
       <c r="O4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.116486988823</v>
       </c>
       <c r="P4" t="n">
-        <v>9081.11648698882</v>
+        <v>9081.116486988823</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="H5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134147.0862131274</v>
+        <v>-134851.446034619</v>
       </c>
       <c r="C6" t="n">
-        <v>20478.634404993</v>
+        <v>19774.27458350152</v>
       </c>
       <c r="D6" t="n">
-        <v>20478.63440499302</v>
+        <v>19774.27458350149</v>
       </c>
       <c r="E6" t="n">
-        <v>54106.23440499301</v>
+        <v>53401.87458350152</v>
       </c>
       <c r="F6" t="n">
-        <v>54106.23440499301</v>
+        <v>53401.87458350152</v>
       </c>
       <c r="G6" t="n">
-        <v>54106.23440499304</v>
+        <v>53401.87458350151</v>
       </c>
       <c r="H6" t="n">
-        <v>54106.23440499305</v>
+        <v>53401.87458350149</v>
       </c>
       <c r="I6" t="n">
-        <v>33530.81542835467</v>
+        <v>32921.76971586501</v>
       </c>
       <c r="J6" t="n">
-        <v>-61974.96956258414</v>
+        <v>-62584.01527507383</v>
       </c>
       <c r="K6" t="n">
-        <v>58747.54738017269</v>
+        <v>58138.50166768307</v>
       </c>
       <c r="L6" t="n">
-        <v>58747.54738017273</v>
+        <v>58138.5016676831</v>
       </c>
       <c r="M6" t="n">
-        <v>58747.54738017271</v>
+        <v>58138.50166768307</v>
       </c>
       <c r="N6" t="n">
-        <v>58747.54738017277</v>
+        <v>58138.50166768309</v>
       </c>
       <c r="O6" t="n">
-        <v>58747.54738017271</v>
+        <v>58138.50166768304</v>
       </c>
       <c r="P6" t="n">
-        <v>58747.54738017273</v>
+        <v>58138.50166768304</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="I4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>94.82790735525987</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="J4" t="n">
-        <v>461.399905760334</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603341</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>76.49136530850697</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031439</v>
       </c>
       <c r="N3" t="n">
-        <v>160.7937153846614</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,10 +34798,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>41.61016168818452</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>111.0748027298626</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34944,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q5" t="n">
-        <v>419.1474984608586</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
-        <v>77.94592742031462</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>442.7574853255732</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q8" t="n">
-        <v>419.1474984608586</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M9" t="n">
-        <v>442.7574853255733</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35342,7 +35342,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35351,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>76.49136530850697</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q12" t="n">
-        <v>352.3878357835376</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35579,7 +35579,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O13" t="n">
         <v>359.0183117977405</v>
@@ -35588,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>461.3999057603341</v>
+        <v>419.1474984608587</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P14" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P15" t="n">
-        <v>359.9096973612267</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35819,13 +35819,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>359.0183117977405</v>
+        <v>277.0726704737833</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.69056852337224</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L17" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>160.7937153846608</v>
       </c>
       <c r="P18" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q18" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36056,7 +36056,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>359.0183117977405</v>
+        <v>111.8210728160671</v>
       </c>
       <c r="P19" t="n">
         <v>293.5345574968697</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>442.7574853255731</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36293,13 +36293,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977405</v>
+        <v>277.0726704737833</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>167.4878420635541</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="L23" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M23" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L24" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>158.2737632597936</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>556.227813115594</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M26" t="n">
-        <v>556.2278131155939</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P26" t="n">
-        <v>263.0232516395694</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
-        <v>440.0596680121644</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36767,13 +36767,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
-        <v>359.0183117977404</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L29" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P29" t="n">
-        <v>415.0101894726378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>527.4536661148499</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M32" t="n">
-        <v>48.74406945557163</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>245.6677613624791</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K34" t="n">
-        <v>228.8157587937751</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
@@ -37308,10 +37308,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>556.227813115594</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="L35" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37320,16 +37320,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P35" t="n">
-        <v>144.279479031587</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>527.4536661148499</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937751</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37478,7 +37478,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O37" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977413</v>
       </c>
       <c r="P37" t="n">
         <v>293.5345574968697</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37557,16 +37557,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>144.2794790315871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P38" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>158.2737632597936</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P39" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391538</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>263.0232516395697</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="P41" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
-        <v>556.227813115594</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>238.1458997847904</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37949,7 +37949,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N43" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404409</v>
       </c>
       <c r="O43" t="n">
         <v>359.0183117977405</v>
@@ -38019,28 +38019,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>144.2794790315871</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>556.227813115594</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P44" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>556.227813115594</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>437.0840165728143</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38195,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
